--- a/Smart Parking system expenses.xlsx
+++ b/Smart Parking system expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Components Purchased</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>No Bill</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Amount Spent</t>
+  </si>
+  <si>
+    <t>Krushik</t>
+  </si>
+  <si>
+    <t>Likith</t>
+  </si>
+  <si>
+    <t>Nandan</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
   </si>
 </sst>
 </file>
@@ -428,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,9 +457,11 @@
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,16 +474,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -476,8 +505,11 @@
       <c r="D3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -490,8 +522,14 @@
       <c r="D4">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -504,8 +542,11 @@
       <c r="D5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -519,7 +560,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -533,7 +574,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -547,7 +588,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -561,7 +602,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -575,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -584,15 +625,15 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -606,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -620,7 +661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/Smart Parking system expenses.xlsx
+++ b/Smart Parking system expenses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Components Purchased</t>
   </si>
@@ -105,6 +105,48 @@
   </si>
   <si>
     <t>Nikhil</t>
+  </si>
+  <si>
+    <t>5204-2400=2804</t>
+  </si>
+  <si>
+    <t>18th Aug 2021</t>
+  </si>
+  <si>
+    <t>Adapter 5v 2.4 Amp</t>
+  </si>
+  <si>
+    <t>Memory Card 32gb</t>
+  </si>
+  <si>
+    <t>RaspberryPi 3b</t>
+  </si>
+  <si>
+    <t>SG90 Servo motor</t>
+  </si>
+  <si>
+    <t>Mini Buzzer</t>
+  </si>
+  <si>
+    <t>Ultrasonic Sensor HC-SR04</t>
+  </si>
+  <si>
+    <t>1/4 Resistor</t>
+  </si>
+  <si>
+    <t>Jumper Wire</t>
+  </si>
+  <si>
+    <t>No gst</t>
+  </si>
+  <si>
+    <t>Total Without GST</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
   </si>
 </sst>
 </file>
@@ -157,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -166,6 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,10 +501,11 @@
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -491,8 +535,11 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -508,8 +555,11 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -528,8 +578,11 @@
       <c r="G4">
         <v>4934</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -546,7 +599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -560,7 +613,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -574,7 +627,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -588,7 +641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -602,7 +655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -616,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -625,15 +678,15 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -647,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -661,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -723,6 +776,202 @@
       </c>
       <c r="D20" s="1">
         <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>296.61</v>
+      </c>
+      <c r="D23">
+        <v>296.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>466.11</v>
+      </c>
+      <c r="D24">
+        <v>466.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>67.8</v>
+      </c>
+      <c r="D25">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2796.61</v>
+      </c>
+      <c r="D26">
+        <v>2796.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>466.11</v>
+      </c>
+      <c r="D27">
+        <v>466.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>152.55000000000001</v>
+      </c>
+      <c r="D28">
+        <v>152.55000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>16.95</v>
+      </c>
+      <c r="D29">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1.69</v>
+      </c>
+      <c r="D30">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>101.7</v>
+      </c>
+      <c r="D31">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.85</v>
+      </c>
+      <c r="D32">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D33">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D23:D33)</f>
+        <v>4409.4699999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>396.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>396.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM(D34:D36)</f>
+        <v>5203.17</v>
       </c>
     </row>
   </sheetData>
